--- a/Data_Quality_Framework/DQF/Projects/Azure/DQ_input/sample_data.xlsx
+++ b/Data_Quality_Framework/DQF/Projects/Azure/DQ_input/sample_data.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\soupatil\Videos\DQF\Data_Quality_Framework_Tool\DQF\Projects\Azure\DQ_input\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\soupatil\PycharmProjects\deloitte\Data_Quality_Framework\DQF\Projects\Azure\DQ_input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4251988-FFBD-40F6-99C0-F72862E71782}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68F9C8EA-E391-448F-848E-42F79E96715A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{0AF5C771-8B5A-4ED2-9DF9-C50BEAF7E7F7}"/>
   </bookViews>
@@ -42,9 +42,6 @@
     <t>Quantity</t>
   </si>
   <si>
-    <t>Customer Name</t>
-  </si>
-  <si>
     <t>John</t>
   </si>
   <si>
@@ -81,12 +78,6 @@
     <t>2001-05-31</t>
   </si>
   <si>
-    <t>Sales Date</t>
-  </si>
-  <si>
-    <t>Delivery Time</t>
-  </si>
-  <si>
     <t>12:12</t>
   </si>
   <si>
@@ -145,6 +136,15 @@
   </si>
   <si>
     <t>Supriya</t>
+  </si>
+  <si>
+    <t>Customer_Name</t>
+  </si>
+  <si>
+    <t>Delivery_Time</t>
+  </si>
+  <si>
+    <t>Sales_Date</t>
   </si>
 </sst>
 </file>
@@ -507,7 +507,7 @@
   <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -525,22 +525,22 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>16</v>
+        <v>35</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>2</v>
+        <v>34</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>15</v>
+        <v>36</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.35">
@@ -548,16 +548,16 @@
         <v>1</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D2">
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G2" s="2"/>
     </row>
@@ -566,16 +566,16 @@
         <v>2</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D3">
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.35">
@@ -583,16 +583,16 @@
         <v>88</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D4">
         <v>10</v>
       </c>
       <c r="E4" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.35">
@@ -600,10 +600,10 @@
         <v>9</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D5">
         <v>1</v>
@@ -612,7 +612,7 @@
         <v>1</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.35">
@@ -620,19 +620,19 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D6">
         <v>3</v>
       </c>
       <c r="E6" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.35">
@@ -640,19 +640,19 @@
         <v>4</v>
       </c>
       <c r="B7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D7">
         <v>5</v>
       </c>
       <c r="E7" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.35">
@@ -660,17 +660,17 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C8" s="1"/>
       <c r="D8" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E8" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.35">
@@ -681,16 +681,16 @@
         <v>1</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D9">
         <v>2</v>
       </c>
       <c r="E9" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.35">
@@ -698,16 +698,16 @@
         <v>11</v>
       </c>
       <c r="B10" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D10">
         <v>10</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.35">
@@ -715,19 +715,19 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D11">
         <v>1</v>
       </c>
       <c r="E11" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.35">
@@ -735,19 +735,19 @@
         <v>4</v>
       </c>
       <c r="B12" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D12">
         <v>3</v>
       </c>
       <c r="E12" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.35">
@@ -755,19 +755,19 @@
         <v>4</v>
       </c>
       <c r="B13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D13">
         <v>5</v>
       </c>
       <c r="E13" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.35">
@@ -775,14 +775,14 @@
         <v>6</v>
       </c>
       <c r="B14" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C14" s="1"/>
       <c r="D14" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E14" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="F14" s="1">
         <v>40858</v>
@@ -796,16 +796,16 @@
         <v>1</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D15">
         <v>2</v>
       </c>
       <c r="E15" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -816,12 +816,14 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="0efb3292-9332-4dbe-9b60-f5563b81532f" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="0b37f3bd-857b-487c-87fc-a0356fc88347">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1028,20 +1030,21 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="0efb3292-9332-4dbe-9b60-f5563b81532f" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="0b37f3bd-857b-487c-87fc-a0356fc88347">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8D0DA67B-7AB1-4CEB-8CE9-1EC508BAD378}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8DDFFCC4-E791-43A1-A62B-9062878A99AF}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="0efb3292-9332-4dbe-9b60-f5563b81532f"/>
+    <ds:schemaRef ds:uri="0b37f3bd-857b-487c-87fc-a0356fc88347"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -1066,12 +1069,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8DDFFCC4-E791-43A1-A62B-9062878A99AF}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8D0DA67B-7AB1-4CEB-8CE9-1EC508BAD378}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="0efb3292-9332-4dbe-9b60-f5563b81532f"/>
-    <ds:schemaRef ds:uri="0b37f3bd-857b-487c-87fc-a0356fc88347"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>